--- a/Multiplicacion_Matrices/Matrices graficas.xlsx
+++ b/Multiplicacion_Matrices/Matrices graficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\HPC\Multiplicacion_Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{578178BD-7A5B-4EB9-8B01-963E595FEDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BF4864-E11F-41E4-882E-C9581C4B56CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{5FFB9B30-AF98-4DF0-89D6-4755494F814C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FFB9B30-AF98-4DF0-89D6-4755494F814C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
   <si>
     <t>Tiempo transcurrido:</t>
   </si>
@@ -94,13 +94,34 @@
   <si>
     <t>matrices</t>
   </si>
+  <si>
+    <t>Hilos 2</t>
+  </si>
+  <si>
+    <t>Hilos 4</t>
+  </si>
+  <si>
+    <t>Hilos 8</t>
+  </si>
+  <si>
+    <t>Procesos 8</t>
+  </si>
+  <si>
+    <t>Procesos 4</t>
+  </si>
+  <si>
+    <t>Procesos 2</t>
+  </si>
+  <si>
+    <t>Procesos 16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -913,7 +934,7 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Hilos</c:v>
+                  <c:v>Hilos 2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0,179327388</c:v>
@@ -1051,7 +1072,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>speedup</c:v>
+                    <c:v>Procesos 4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0,34109953</c:v>
@@ -1369,7 +1390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hilos</c:v>
+                  <c:v>Hilos 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1447,7 +1468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Procesos</c:v>
+                  <c:v>Procesos 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1892,6 +1913,1020 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Hilos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilos 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.17932738798753634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73065423596052992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74263655411231022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83865358492132247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87062749660097538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94005548544106554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95450691515557762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94486087771797067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D028-4F23-9964-C60187C38E6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilos 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14005202651674084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70109990834097169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72672871322302157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75101263513990191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79895642216570473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82479741780884819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84593298367007097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83503314365454895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D028-4F23-9964-C60187C38E6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilos 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.1668039764925588E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73108721624850659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73315305587288193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74693848597420387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81092481880501854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83574668047735723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83359954622713461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78640152216878467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D028-4F23-9964-C60187C38E6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="858193136"/>
+        <c:axId val="858192656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858193136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858192656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858192656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858193136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Procesos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Procesos 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$28:$S$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47293850949277427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.568070953436807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.059359110795793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.452896746347946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.76699529218382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.03088272791359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436.43296386105027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>955.36480917263293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B198-4093-9AF5-746FD7BCAC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Procesos 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$43:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34109952994073173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.461713913326816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.013261995560363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.139114135528303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.28660602482577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>324.60013563509841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.16052738963839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950.88126181157998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B198-4093-9AF5-746FD7BCAC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Procesos 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$58:$S$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20839056061930333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7863994026764676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.119500372856077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.658662241029432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.20192588376096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332.10282025955308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465.92132746725548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1033.2359969074782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B198-4093-9AF5-746FD7BCAC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Procesos 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$L$74:$S$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.13117975320286099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.021175266658795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.796279302577791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.543083443992856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.28812448755053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319.81132697791207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448.49746741213079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>992.93236261996378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B198-4093-9AF5-746FD7BCAC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="521092640"/>
+        <c:axId val="521094560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="521092640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521094560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521094560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521092640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2012,6 +3047,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3541,6 +4656,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3600,16 +5747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3665,6 +5812,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDAED83-3A9B-5E12-06A7-0417B708365E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4BF399-BE5A-85C5-8056-9A7802AFAFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3972,8 +6191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ED6A3-66F0-49CE-A367-11AE337E1FCC}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I94" workbookViewId="0">
-      <selection activeCell="R114" sqref="R114"/>
+    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,7 +7282,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <f>B12/B27</f>
@@ -5098,14 +7317,14 @@
         <v>0.94486087771797067</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L28">
         <f>B12/L27</f>
         <v>0.47293850949277427</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:S28" si="16">C12/M27</f>
+        <f t="shared" ref="M28:R28" si="16">C12/M27</f>
         <v>13.568070953436807</v>
       </c>
       <c r="N28">
@@ -5860,7 +8079,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <f>B12/B42</f>
@@ -5871,7 +8090,7 @@
         <v>0.70109990834097169</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="C43:I43" si="31">D12/D42</f>
+        <f t="shared" ref="D43:I43" si="31">D12/D42</f>
         <v>0.72672871322302157</v>
       </c>
       <c r="E43">
@@ -5895,7 +8114,7 @@
         <v>0.83503314365454895</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <f>B12/L42</f>
@@ -6681,7 +8900,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <f>B12/B57</f>
@@ -6716,7 +8935,7 @@
         <v>0.78640152216878467</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L58">
         <f>B12/L57</f>
@@ -7510,7 +9729,7 @@
         <v>0.73935791388675953</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L74">
         <f>B12/L73</f>
